--- a/Desarrollo/Salvame/Documentos/Salvame-CP.xlsx
+++ b/Desarrollo/Salvame/Documentos/Salvame-CP.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-Ramsés\CicloVI\GCS\Repositorio\Linea Base\Linea Base 01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F51C98-C7D5-4220-B25C-91E536BD39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Cronograma #1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="IntegrantesRoles" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Ideas de proyecto" sheetId="3" r:id="rId6"/>
+    <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
+    <sheet name="IntegrantesRoles" sheetId="2" r:id="rId2"/>
+    <sheet name="Ideas de proyecto" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhPChMJ8grr+4bIEQv0hHhQ/wICnw=="/>
@@ -492,158 +501,160 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="166" formatCode="d-m"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-m"/>
   </numFmts>
   <fonts count="26">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF0779E4"/>
       <name val="Montserrat"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF060606"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF060606"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Montserrat"/>
     </font>
@@ -653,7 +664,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -687,33 +698,43 @@
     </fill>
   </fills>
   <borders count="26">
-    <border/>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -723,6 +744,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -737,6 +759,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -751,6 +774,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -765,6 +789,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -779,6 +804,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -791,6 +817,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -805,6 +832,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -817,6 +845,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -829,6 +858,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -839,6 +869,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -853,6 +884,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -863,6 +895,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -872,6 +905,8 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -880,6 +915,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -888,9 +926,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -905,6 +945,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -919,6 +960,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -931,6 +973,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -943,6 +986,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -953,6 +997,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -967,6 +1012,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -977,272 +1023,249 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="94">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="4" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="9" fontId="22" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="4" fontId="12" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="6" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="2" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="17" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="4" fontId="20" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="5" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="17" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="2" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="5" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="2" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="2" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="23" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="2" fontId="17" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1432,2814 +1455,2869 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.25"/>
-    <col customWidth="1" min="2" max="2" width="59.38"/>
-    <col customWidth="1" min="3" max="3" width="64.0"/>
-    <col customWidth="1" min="4" max="4" width="22.38"/>
-    <col customWidth="1" min="5" max="5" width="59.13"/>
-    <col customWidth="1" min="6" max="7" width="10.38"/>
-    <col customWidth="1" min="8" max="8" width="14.38"/>
-    <col customWidth="1" hidden="1" min="9" max="9" width="10.13"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="59.140625" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9" t="s">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14">
-        <v>44816.0</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="15" t="s">
+      <c r="C6" s="11">
+        <v>44816</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16">
-        <v>44886.0</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="20" t="s">
+      <c r="C7" s="13">
+        <v>44886</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25" t="s">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="29">
-        <v>44816.0</v>
-      </c>
-      <c r="G10" s="29">
-        <v>44823.0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" ht="32.25" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="25" t="s">
+      <c r="F10" s="26">
+        <v>44816</v>
+      </c>
+      <c r="G10" s="26">
+        <v>44823</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="32.25" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="29">
-        <v>44816.0</v>
-      </c>
-      <c r="G11" s="29">
-        <v>44823.0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="31" t="s">
+      <c r="F11" s="26">
+        <v>44816</v>
+      </c>
+      <c r="G11" s="26">
+        <v>44823</v>
+      </c>
+      <c r="H11" s="27">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" ht="29.25" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="25" t="s">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="29.25" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="33">
-        <v>44816.0</v>
-      </c>
-      <c r="G12" s="29">
-        <v>44823.0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="I12" s="31" t="s">
+      <c r="F12" s="30">
+        <v>44816</v>
+      </c>
+      <c r="G12" s="26">
+        <v>44823</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
+      <c r="I12" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" ht="26.25" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="25" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="33">
-        <v>44816.0</v>
-      </c>
-      <c r="G13" s="29">
-        <v>44823.0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="25" t="s">
+      <c r="F13" s="30">
+        <v>44816</v>
+      </c>
+      <c r="G13" s="26">
+        <v>44823</v>
+      </c>
+      <c r="H13" s="27">
+        <v>1</v>
+      </c>
+      <c r="I13" s="83"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="29">
-        <v>44816.0</v>
-      </c>
-      <c r="G14" s="29">
-        <v>44823.0</v>
-      </c>
-      <c r="H14" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="25" t="s">
+      <c r="F14" s="26">
+        <v>44816</v>
+      </c>
+      <c r="G14" s="26">
+        <v>44823</v>
+      </c>
+      <c r="H14" s="27">
+        <v>1</v>
+      </c>
+      <c r="I14" s="83"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.5">
+      <c r="A15" s="14"/>
+      <c r="B15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="29">
-        <v>44823.0</v>
-      </c>
-      <c r="G15" s="29">
-        <v>44830.0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="39"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="40" t="s">
+      <c r="F15" s="26">
+        <v>44823</v>
+      </c>
+      <c r="G15" s="26">
+        <v>44830</v>
+      </c>
+      <c r="H15" s="27">
+        <v>1</v>
+      </c>
+      <c r="I15" s="83"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G16" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H16" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41" t="s">
+      <c r="F16" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G16" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H16" s="27">
+        <v>1</v>
+      </c>
+      <c r="I16" s="83"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G17" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H17" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="41" t="s">
+      <c r="F17" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G17" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H17" s="27">
+        <v>1</v>
+      </c>
+      <c r="I17" s="28"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G18" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H18" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41" t="s">
+      <c r="F18" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G18" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H18" s="27">
+        <v>1</v>
+      </c>
+      <c r="I18" s="28"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G19" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H19" s="30">
-        <v>0.55</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="41" t="s">
+      <c r="F19" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G19" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H19" s="27">
+        <v>1</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G20" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H20" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41" t="s">
+      <c r="F20" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G20" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H20" s="27">
+        <v>1</v>
+      </c>
+      <c r="I20" s="28"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G21" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H21" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="41" t="s">
+      <c r="F21" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G21" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H21" s="27">
+        <v>1</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G22" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H22" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" ht="26.25" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41" t="s">
+      <c r="F22" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G22" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H22" s="27">
+        <v>1</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="32"/>
+    </row>
+    <row r="23" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G23" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H23" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" ht="27.0" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="41" t="s">
+      <c r="F23" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G23" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H23" s="27">
+        <v>1</v>
+      </c>
+      <c r="I23" s="28"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="32"/>
+    </row>
+    <row r="24" spans="1:12" ht="27" customHeight="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G24" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H24" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" ht="26.25" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="41" t="s">
+      <c r="F24" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G24" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H24" s="27">
+        <v>1</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="32"/>
+    </row>
+    <row r="25" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="33">
-        <v>44823.0</v>
-      </c>
-      <c r="G25" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H25" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="45" t="s">
+      <c r="F25" s="30">
+        <v>44823</v>
+      </c>
+      <c r="G25" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H25" s="27">
+        <v>1</v>
+      </c>
+      <c r="I25" s="28"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="32"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="29">
-        <v>44823.0</v>
-      </c>
-      <c r="G26" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H26" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="I26" s="31" t="s">
+      <c r="F26" s="26">
+        <v>44823</v>
+      </c>
+      <c r="G26" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H26" s="27">
+        <v>1</v>
+      </c>
+      <c r="I26" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="25" t="s">
+      <c r="J26" s="31"/>
+      <c r="K26" s="32"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="29">
-        <v>44830.0</v>
-      </c>
-      <c r="G27" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H27" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="46" t="s">
+      <c r="F27" s="26">
+        <v>44830</v>
+      </c>
+      <c r="G27" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H27" s="27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="83"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F28" s="48">
-        <v>44830.0</v>
-      </c>
-      <c r="G28" s="48">
-        <v>44844.0</v>
-      </c>
-      <c r="H28" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="49"/>
-    </row>
-    <row r="29" ht="27.0" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="25" t="s">
+      <c r="F28" s="42">
+        <v>44830</v>
+      </c>
+      <c r="G28" s="42">
+        <v>44844</v>
+      </c>
+      <c r="H28" s="27">
+        <v>1</v>
+      </c>
+      <c r="I28" s="83"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="1:12" ht="27" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="29">
-        <v>44837.0</v>
-      </c>
-      <c r="G29" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H29" s="30">
-        <v>1.0</v>
-      </c>
-      <c r="I29" s="31" t="s">
+      <c r="F29" s="26">
+        <v>44837</v>
+      </c>
+      <c r="G29" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H29" s="27">
+        <v>1</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-    </row>
-    <row r="30" ht="26.25" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="25" t="s">
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="29">
-        <v>44837.0</v>
-      </c>
-      <c r="G30" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H30" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="I30" s="31" t="s">
+      <c r="F30" s="26">
+        <v>44837</v>
+      </c>
+      <c r="G30" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H30" s="27">
+        <v>1</v>
+      </c>
+      <c r="I30" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="50" t="s">
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="29">
-        <v>44837.0</v>
-      </c>
-      <c r="G31" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="H31" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="51" t="s">
+      <c r="F31" s="26">
+        <v>44837</v>
+      </c>
+      <c r="G31" s="26">
+        <v>44844</v>
+      </c>
+      <c r="H31" s="27">
+        <v>1</v>
+      </c>
+      <c r="I31" s="83"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="32"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54">
-        <v>44844.0</v>
-      </c>
-      <c r="H32" s="55"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="56" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48">
+        <v>44844</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="83"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G33" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H33" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="I33" s="31" t="s">
+      <c r="F33" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G33" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H33" s="50">
+        <v>0</v>
+      </c>
+      <c r="I33" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="5"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="41" t="s">
+      <c r="J33" s="31"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G34" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H34" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="5"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41" t="s">
+      <c r="F34" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G34" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H34" s="27">
+        <v>0</v>
+      </c>
+      <c r="I34" s="83"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G35" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H35" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J35" s="34"/>
-      <c r="K35" s="5"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="41" t="s">
+      <c r="F35" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G35" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H35" s="50">
+        <v>0</v>
+      </c>
+      <c r="I35" s="83"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A36" s="14"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G36" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H36" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="5"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="41" t="s">
+      <c r="F36" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G36" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H36" s="50">
+        <v>0</v>
+      </c>
+      <c r="I36" s="83"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A37" s="14"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E37" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F37" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G37" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H37" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="5"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="41" t="s">
+      <c r="F37" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G37" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H37" s="50">
+        <v>0</v>
+      </c>
+      <c r="I37" s="83"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G38" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H38" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="5"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41" t="s">
+      <c r="F38" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G38" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H38" s="50">
+        <v>0</v>
+      </c>
+      <c r="I38" s="83"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="14"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="42" t="s">
+      <c r="D39" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E39" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F39" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G39" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H39" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="5"/>
-    </row>
-    <row r="40" ht="24.0" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="41" t="s">
+      <c r="F39" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G39" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H39" s="50">
+        <v>0</v>
+      </c>
+      <c r="I39" s="83"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" ht="24" customHeight="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G40" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H40" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J40" s="34"/>
-      <c r="K40" s="5"/>
-    </row>
-    <row r="41" ht="23.25" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="41" t="s">
+      <c r="F40" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G40" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H40" s="50">
+        <v>0</v>
+      </c>
+      <c r="I40" s="83"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="23.25" customHeight="1">
+      <c r="A41" s="14"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G41" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H41" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" ht="27.0" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="41" t="s">
+      <c r="F41" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G41" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H41" s="50">
+        <v>0</v>
+      </c>
+      <c r="I41" s="83"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="27" customHeight="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="E42" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G42" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H42" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J42" s="34"/>
-      <c r="K42" s="5"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="58" t="s">
+      <c r="F42" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G42" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H42" s="50">
+        <v>0</v>
+      </c>
+      <c r="I42" s="83"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G43" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H43" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="59" t="s">
+      <c r="F43" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G43" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H43" s="50">
+        <v>0</v>
+      </c>
+      <c r="I43" s="83"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="14"/>
+      <c r="B44" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G44" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H44" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="61" t="s">
+      <c r="F44" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G44" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H44" s="50">
+        <v>0</v>
+      </c>
+      <c r="I44" s="83"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A45" s="14"/>
+      <c r="B45" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E45" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G45" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="H45" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="62" t="s">
+      <c r="F45" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G45" s="26">
+        <v>44851</v>
+      </c>
+      <c r="H45" s="50">
+        <v>0</v>
+      </c>
+      <c r="I45" s="83"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="14"/>
+      <c r="B46" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G46" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="H46" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="5"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="62" t="s">
+      <c r="F46" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G46" s="26">
+        <v>44858</v>
+      </c>
+      <c r="H46" s="50">
+        <v>0</v>
+      </c>
+      <c r="I46" s="83"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="14"/>
+      <c r="B47" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F47" s="29">
-        <v>44844.0</v>
-      </c>
-      <c r="G47" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="H47" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="5"/>
-    </row>
-    <row r="48" ht="26.25" customHeight="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="25" t="s">
+      <c r="F47" s="26">
+        <v>44844</v>
+      </c>
+      <c r="G47" s="26">
+        <v>44858</v>
+      </c>
+      <c r="H47" s="50">
+        <v>0</v>
+      </c>
+      <c r="I47" s="83"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A48" s="14"/>
+      <c r="B48" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="G48" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="H48" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="I48" s="31" t="s">
+      <c r="F48" s="26">
+        <v>44851</v>
+      </c>
+      <c r="G48" s="26">
+        <v>44858</v>
+      </c>
+      <c r="H48" s="50">
+        <v>0</v>
+      </c>
+      <c r="I48" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="5"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="50" t="s">
+      <c r="J48" s="31"/>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A49" s="14"/>
+      <c r="B49" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="C49" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="29">
-        <v>44851.0</v>
-      </c>
-      <c r="G49" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="H49" s="57">
-        <v>0.0</v>
-      </c>
-      <c r="J49" s="34"/>
-      <c r="K49" s="5"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="17"/>
-      <c r="B50" s="51" t="s">
+      <c r="F49" s="26">
+        <v>44851</v>
+      </c>
+      <c r="G49" s="26">
+        <v>44858</v>
+      </c>
+      <c r="H49" s="50">
+        <v>0</v>
+      </c>
+      <c r="I49" s="83"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A50" s="14"/>
+      <c r="B50" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="54">
-        <v>44858.0</v>
-      </c>
-      <c r="H50" s="67"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="17"/>
-      <c r="B51" s="62" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="48">
+        <v>44858</v>
+      </c>
+      <c r="H50" s="60"/>
+      <c r="I50" s="83"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A51" s="14"/>
+      <c r="B51" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="60" t="s">
+      <c r="E51" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F51" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G51" s="29">
-        <v>44879.0</v>
-      </c>
-      <c r="H51" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="I51" s="31" t="s">
+      <c r="F51" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G51" s="26">
+        <v>44879</v>
+      </c>
+      <c r="H51" s="27">
+        <v>0</v>
+      </c>
+      <c r="I51" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="34"/>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="17"/>
-      <c r="B52" s="62" t="s">
+      <c r="J51" s="31"/>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="14"/>
+      <c r="B52" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="F52" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G52" s="29">
-        <v>44879.0</v>
-      </c>
-      <c r="H52" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J52" s="34"/>
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="17"/>
-      <c r="B53" s="68" t="s">
+      <c r="F52" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G52" s="26">
+        <v>44879</v>
+      </c>
+      <c r="H52" s="27">
+        <v>0</v>
+      </c>
+      <c r="I52" s="83"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="14"/>
+      <c r="B53" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E53" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F53" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G53" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H53" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J53" s="34"/>
-      <c r="K53" s="5"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="17"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="41" t="s">
+      <c r="F53" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G53" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H53" s="27">
+        <v>0</v>
+      </c>
+      <c r="I53" s="83"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="14"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F54" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G54" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H54" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J54" s="34"/>
-      <c r="K54" s="5"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="41" t="s">
+      <c r="F54" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G54" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H54" s="27">
+        <v>0</v>
+      </c>
+      <c r="I54" s="83"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="14"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="28" t="s">
+      <c r="E55" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G55" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H55" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J55" s="34"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="17"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="41" t="s">
+      <c r="F55" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G55" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H55" s="27">
+        <v>0</v>
+      </c>
+      <c r="I55" s="83"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A56" s="14"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="28" t="s">
+      <c r="E56" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G56" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H56" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J56" s="34"/>
-      <c r="K56" s="5"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="17"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="41" t="s">
+      <c r="F56" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G56" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H56" s="27">
+        <v>0</v>
+      </c>
+      <c r="I56" s="83"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A57" s="14"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G57" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H57" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J57" s="34"/>
-      <c r="K57" s="5"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="41" t="s">
+      <c r="F57" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G57" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H57" s="27">
+        <v>0</v>
+      </c>
+      <c r="I57" s="83"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A58" s="14"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="28" t="s">
+      <c r="E58" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G58" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H58" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J58" s="34"/>
-      <c r="K58" s="5"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="17"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="41" t="s">
+      <c r="F58" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G58" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H58" s="27">
+        <v>0</v>
+      </c>
+      <c r="I58" s="83"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A59" s="14"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="42" t="s">
+      <c r="D59" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="28" t="s">
+      <c r="E59" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G59" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H59" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J59" s="34"/>
-      <c r="K59" s="5"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="17"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="41" t="s">
+      <c r="F59" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G59" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H59" s="27">
+        <v>0</v>
+      </c>
+      <c r="I59" s="83"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A60" s="14"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="42" t="s">
+      <c r="D60" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F60" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G60" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H60" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J60" s="34"/>
-      <c r="K60" s="5"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="17"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="41" t="s">
+      <c r="F60" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G60" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H60" s="27">
+        <v>0</v>
+      </c>
+      <c r="I60" s="83"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A61" s="14"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="28" t="s">
+      <c r="E61" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F61" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G61" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H61" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J61" s="34"/>
-      <c r="K61" s="5"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="17"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="41" t="s">
+      <c r="F61" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G61" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H61" s="27">
+        <v>0</v>
+      </c>
+      <c r="I61" s="83"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A62" s="14"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E62" s="28" t="s">
+      <c r="E62" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F62" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G62" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H62" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J62" s="34"/>
-      <c r="K62" s="5"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="17"/>
-      <c r="B63" s="58" t="s">
+      <c r="F62" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G62" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H62" s="27">
+        <v>0</v>
+      </c>
+      <c r="I62" s="83"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A63" s="14"/>
+      <c r="B63" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="60" t="s">
+      <c r="E63" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F63" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G63" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H63" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J63" s="34"/>
-      <c r="K63" s="5"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="17"/>
-      <c r="B64" s="59" t="s">
+      <c r="F63" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G63" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H63" s="27">
+        <v>0</v>
+      </c>
+      <c r="I63" s="83"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A64" s="14"/>
+      <c r="B64" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="C64" s="69" t="s">
+      <c r="C64" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="60" t="s">
+      <c r="E64" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F64" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G64" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H64" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J64" s="34"/>
-      <c r="K64" s="5"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="17"/>
-      <c r="B65" s="50" t="s">
+      <c r="F64" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G64" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H64" s="27">
+        <v>0</v>
+      </c>
+      <c r="I64" s="83"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A65" s="14"/>
+      <c r="B65" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="F65" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G65" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H65" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J65" s="34"/>
-      <c r="K65" s="5"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="17"/>
-      <c r="B66" s="50" t="s">
+      <c r="F65" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G65" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H65" s="27">
+        <v>0</v>
+      </c>
+      <c r="I65" s="83"/>
+      <c r="J65" s="31"/>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A66" s="14"/>
+      <c r="B66" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D66" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="60" t="s">
+      <c r="E66" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="29">
-        <v>44858.0</v>
-      </c>
-      <c r="G66" s="29">
-        <v>44865.0</v>
-      </c>
-      <c r="H66" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J66" s="34"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="17"/>
-      <c r="B67" s="50" t="s">
+      <c r="F66" s="26">
+        <v>44858</v>
+      </c>
+      <c r="G66" s="26">
+        <v>44865</v>
+      </c>
+      <c r="H66" s="27">
+        <v>0</v>
+      </c>
+      <c r="I66" s="83"/>
+      <c r="J66" s="31"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+    </row>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A67" s="14"/>
+      <c r="B67" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="63" t="s">
+      <c r="C67" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="D67" s="27" t="s">
+      <c r="D67" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E67" s="60" t="s">
+      <c r="E67" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="F67" s="29">
-        <v>44872.0</v>
-      </c>
-      <c r="G67" s="29">
-        <v>44879.0</v>
-      </c>
-      <c r="H67" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J67" s="34"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-    </row>
-    <row r="68" ht="15.0" customHeight="1">
-      <c r="A68" s="17"/>
-      <c r="B68" s="50" t="s">
+      <c r="F67" s="26">
+        <v>44872</v>
+      </c>
+      <c r="G67" s="26">
+        <v>44879</v>
+      </c>
+      <c r="H67" s="27">
+        <v>0</v>
+      </c>
+      <c r="I67" s="83"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+    </row>
+    <row r="68" spans="1:26" ht="15" customHeight="1">
+      <c r="A68" s="14"/>
+      <c r="B68" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="63" t="s">
+      <c r="C68" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="27" t="s">
+      <c r="D68" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E68" s="60" t="s">
+      <c r="E68" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="F68" s="29">
-        <v>44872.0</v>
-      </c>
-      <c r="G68" s="29">
-        <v>44879.0</v>
-      </c>
-      <c r="H68" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J68" s="34"/>
-      <c r="K68" s="5"/>
-    </row>
-    <row r="69" ht="13.5" customHeight="1">
-      <c r="A69" s="17"/>
-      <c r="B69" s="50" t="s">
+      <c r="F68" s="26">
+        <v>44872</v>
+      </c>
+      <c r="G68" s="26">
+        <v>44879</v>
+      </c>
+      <c r="H68" s="27">
+        <v>0</v>
+      </c>
+      <c r="I68" s="83"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A69" s="14"/>
+      <c r="B69" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="63" t="s">
+      <c r="C69" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E69" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="29">
-        <v>44872.0</v>
-      </c>
-      <c r="G69" s="29">
-        <v>44879.0</v>
-      </c>
-      <c r="H69" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="I69" s="31" t="s">
+      <c r="F69" s="26">
+        <v>44872</v>
+      </c>
+      <c r="G69" s="26">
+        <v>44879</v>
+      </c>
+      <c r="H69" s="27">
+        <v>0</v>
+      </c>
+      <c r="I69" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="J69" s="34"/>
-      <c r="K69" s="5"/>
-    </row>
-    <row r="70" ht="26.25" customHeight="1">
-      <c r="A70" s="17"/>
-      <c r="B70" s="50" t="s">
+      <c r="J69" s="31"/>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:26" ht="26.25" customHeight="1">
+      <c r="A70" s="14"/>
+      <c r="B70" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="63" t="s">
+      <c r="C70" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="27" t="s">
+      <c r="D70" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="E70" s="60" t="s">
+      <c r="E70" s="53" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="29">
-        <v>44879.0</v>
-      </c>
-      <c r="G70" s="29">
-        <v>44886.0</v>
-      </c>
-      <c r="H70" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J70" s="34"/>
-      <c r="K70" s="5"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="17"/>
-      <c r="B71" s="50" t="s">
+      <c r="F70" s="26">
+        <v>44879</v>
+      </c>
+      <c r="G70" s="26">
+        <v>44886</v>
+      </c>
+      <c r="H70" s="27">
+        <v>0</v>
+      </c>
+      <c r="I70" s="83"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A71" s="14"/>
+      <c r="B71" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="63" t="s">
+      <c r="C71" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D71" s="27" t="s">
+      <c r="D71" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="60" t="s">
+      <c r="E71" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="29">
-        <v>44879.0</v>
-      </c>
-      <c r="G71" s="29">
-        <v>44886.0</v>
-      </c>
-      <c r="H71" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="I71" s="31" t="s">
+      <c r="F71" s="26">
+        <v>44879</v>
+      </c>
+      <c r="G71" s="26">
+        <v>44886</v>
+      </c>
+      <c r="H71" s="27">
+        <v>0</v>
+      </c>
+      <c r="I71" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="J71" s="34"/>
-      <c r="K71" s="5"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="17"/>
-      <c r="B72" s="70" t="s">
+      <c r="J71" s="31"/>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A72" s="14"/>
+      <c r="B72" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="71" t="s">
+      <c r="C72" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="27" t="s">
+      <c r="D72" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E72" s="60" t="s">
+      <c r="E72" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="29">
-        <v>44879.0</v>
-      </c>
-      <c r="G72" s="29">
-        <v>44886.0</v>
-      </c>
-      <c r="H72" s="30">
-        <v>0.0</v>
-      </c>
-      <c r="J72" s="34"/>
-      <c r="K72" s="5"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="17"/>
-      <c r="B73" s="72" t="s">
+      <c r="F72" s="26">
+        <v>44879</v>
+      </c>
+      <c r="G72" s="26">
+        <v>44886</v>
+      </c>
+      <c r="H72" s="27">
+        <v>0</v>
+      </c>
+      <c r="I72" s="83"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A73" s="14"/>
+      <c r="B73" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="73"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76">
-        <v>44886.0</v>
-      </c>
-      <c r="H73" s="77"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="80"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="F135" s="8"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="8"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="F146" s="8"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="8"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="F151" s="8"/>
-      <c r="G151" s="8"/>
-      <c r="H151" s="8"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
-      <c r="H153" s="8"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="F155" s="8"/>
-      <c r="G155" s="8"/>
-      <c r="H155" s="8"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="F157" s="8"/>
-      <c r="G157" s="8"/>
-      <c r="H157" s="8"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="F159" s="8"/>
-      <c r="G159" s="8"/>
-      <c r="H159" s="8"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="F163" s="8"/>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="F165" s="8"/>
-      <c r="G165" s="8"/>
-      <c r="H165" s="8"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
-      <c r="H170" s="8"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="F172" s="8"/>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="F183" s="8"/>
-      <c r="G183" s="8"/>
-      <c r="H183" s="8"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="F185" s="8"/>
-      <c r="G185" s="8"/>
-      <c r="H185" s="8"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="F186" s="8"/>
-      <c r="G186" s="8"/>
-      <c r="H186" s="8"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="F188" s="8"/>
-      <c r="G188" s="8"/>
-      <c r="H188" s="8"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="F189" s="8"/>
-      <c r="G189" s="8"/>
-      <c r="H189" s="8"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="F190" s="8"/>
-      <c r="G190" s="8"/>
-      <c r="H190" s="8"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
-      <c r="H195" s="8"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="F197" s="8"/>
-      <c r="G197" s="8"/>
-      <c r="H197" s="8"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-      <c r="H199" s="8"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="F203" s="8"/>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="F209" s="8"/>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="F210" s="8"/>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="F211" s="8"/>
-      <c r="G211" s="8"/>
-      <c r="H211" s="8"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
-      <c r="H213" s="8"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="F219" s="8"/>
-      <c r="G219" s="8"/>
-      <c r="H219" s="8"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="F221" s="8"/>
-      <c r="G221" s="8"/>
-      <c r="H221" s="8"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="F223" s="8"/>
-      <c r="G223" s="8"/>
-      <c r="H223" s="8"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="F224" s="8"/>
-      <c r="G224" s="8"/>
-      <c r="H224" s="8"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="F225" s="8"/>
-      <c r="G225" s="8"/>
-      <c r="H225" s="8"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="8"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="F229" s="8"/>
-      <c r="G229" s="8"/>
-      <c r="H229" s="8"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="F231" s="8"/>
-      <c r="G231" s="8"/>
-      <c r="H231" s="8"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
-      <c r="H235" s="8"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="F239" s="8"/>
-      <c r="G239" s="8"/>
-      <c r="H239" s="8"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="F241" s="8"/>
-      <c r="G241" s="8"/>
-      <c r="H241" s="8"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-      <c r="H243" s="8"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
-      <c r="H245" s="8"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
-      <c r="H246" s="8"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
-      <c r="H247" s="8"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
-      <c r="H248" s="8"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-      <c r="H249" s="8"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
-      <c r="H250" s="8"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
-      <c r="H251" s="8"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="F252" s="8"/>
-      <c r="G252" s="8"/>
-      <c r="H252" s="8"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
-      <c r="H253" s="8"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
-      <c r="H254" s="8"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="F255" s="8"/>
-      <c r="G255" s="8"/>
-      <c r="H255" s="8"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="F256" s="8"/>
-      <c r="G256" s="8"/>
-      <c r="H256" s="8"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
-      <c r="F257" s="8"/>
-      <c r="G257" s="8"/>
-      <c r="H257" s="8"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8"/>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
-      <c r="F259" s="8"/>
-      <c r="G259" s="8"/>
-      <c r="H259" s="8"/>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="F260" s="8"/>
-      <c r="G260" s="8"/>
-      <c r="H260" s="8"/>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="F261" s="8"/>
-      <c r="G261" s="8"/>
-      <c r="H261" s="8"/>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
-      <c r="H262" s="8"/>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-      <c r="H263" s="8"/>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="F264" s="8"/>
-      <c r="G264" s="8"/>
-      <c r="H264" s="8"/>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="F265" s="8"/>
-      <c r="G265" s="8"/>
-      <c r="H265" s="8"/>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="F266" s="8"/>
-      <c r="G266" s="8"/>
-      <c r="H266" s="8"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
-      <c r="H267" s="8"/>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
-      <c r="H268" s="8"/>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
-      <c r="H269" s="8"/>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
-      <c r="H270" s="8"/>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="F271" s="8"/>
-      <c r="G271" s="8"/>
-      <c r="H271" s="8"/>
-    </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="F272" s="8"/>
-      <c r="G272" s="8"/>
-      <c r="H272" s="8"/>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
-      <c r="H273" s="8"/>
-    </row>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68">
+        <v>44886</v>
+      </c>
+      <c r="H73" s="69"/>
+      <c r="I73" s="83"/>
+    </row>
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B74" s="70"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="71"/>
+    </row>
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B75" s="72"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F146" s="5"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F153" s="5"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F154" s="5"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F188" s="5"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F191" s="5"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F192" s="5"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F193" s="5"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+    </row>
+    <row r="196" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F196" s="5"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+    </row>
+    <row r="198" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F199" s="5"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F200" s="5"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F201" s="5"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F202" s="5"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F203" s="5"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F206" s="5"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F210" s="5"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F211" s="5"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F215" s="5"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+    </row>
+    <row r="218" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F219" s="5"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F220" s="5"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+    </row>
+    <row r="221" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F221" s="5"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F223" s="5"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F224" s="5"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+    </row>
+    <row r="225" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F225" s="5"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+    </row>
+    <row r="226" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F226" s="5"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+    </row>
+    <row r="242" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+    </row>
+    <row r="243" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+    </row>
+    <row r="244" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+    </row>
+    <row r="245" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+    </row>
+    <row r="246" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F246" s="5"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+    </row>
+    <row r="247" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F247" s="5"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+    </row>
+    <row r="248" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+    </row>
+    <row r="249" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+    </row>
+    <row r="250" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+    </row>
+    <row r="251" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+    </row>
+    <row r="252" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F252" s="5"/>
+      <c r="G252" s="5"/>
+      <c r="H252" s="5"/>
+    </row>
+    <row r="253" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F253" s="5"/>
+      <c r="G253" s="5"/>
+      <c r="H253" s="5"/>
+    </row>
+    <row r="254" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+    </row>
+    <row r="255" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+    </row>
+    <row r="256" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F256" s="5"/>
+      <c r="G256" s="5"/>
+      <c r="H256" s="5"/>
+    </row>
+    <row r="257" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="5"/>
+    </row>
+    <row r="258" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+    </row>
+    <row r="259" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+    </row>
+    <row r="260" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F260" s="5"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="5"/>
+    </row>
+    <row r="261" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F261" s="5"/>
+      <c r="G261" s="5"/>
+      <c r="H261" s="5"/>
+    </row>
+    <row r="262" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F262" s="5"/>
+      <c r="G262" s="5"/>
+      <c r="H262" s="5"/>
+    </row>
+    <row r="263" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+    </row>
+    <row r="264" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F264" s="5"/>
+      <c r="G264" s="5"/>
+      <c r="H264" s="5"/>
+    </row>
+    <row r="265" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F265" s="5"/>
+      <c r="G265" s="5"/>
+      <c r="H265" s="5"/>
+    </row>
+    <row r="266" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+    </row>
+    <row r="267" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+    </row>
+    <row r="268" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F268" s="5"/>
+      <c r="G268" s="5"/>
+      <c r="H268" s="5"/>
+    </row>
+    <row r="269" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F269" s="5"/>
+      <c r="G269" s="5"/>
+      <c r="H269" s="5"/>
+    </row>
+    <row r="270" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+    </row>
+    <row r="271" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+    </row>
+    <row r="272" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="5"/>
+    </row>
+    <row r="273" spans="6:8" ht="15.75" customHeight="1">
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+    </row>
+    <row r="274" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="275" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="276" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="277" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="278" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="279" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="280" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="281" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="282" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="283" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="284" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="285" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="286" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="287" spans="6:8" ht="15.75" customHeight="1"/>
+    <row r="288" spans="6:8" ht="15.75" customHeight="1"/>
     <row r="289" ht="15.75" customHeight="1"/>
     <row r="290" ht="15.75" customHeight="1"/>
     <row r="291" ht="15.75" customHeight="1"/>
@@ -4983,150 +5061,148 @@
     <row r="1029" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="I26:I28"/>
     <mergeCell ref="I33:I47"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="I51:I68"/>
     <mergeCell ref="I69:I70"/>
     <mergeCell ref="I71:I73"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="B53:B62"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.25"/>
-    <col customWidth="1" min="3" max="3" width="49.38"/>
-    <col customWidth="1" min="4" max="4" width="33.38"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1"/>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="81" t="s">
+    <row r="1" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="2" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B2" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="82" t="s">
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B3" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="84" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="86"/>
+    </row>
+    <row r="4" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B4" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="76" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="87" t="s">
+    <row r="5" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B5" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="78" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="B6" s="87" t="s">
+    <row r="6" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B6" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="B7" s="87" t="s">
+    <row r="7" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B7" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="B8" s="89" t="s">
+    <row r="8" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B8" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="87" t="s">
+    <row r="9" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B9" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="87" t="s">
+    <row r="10" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B10" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="78" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="90" t="s">
+    <row r="11" spans="2:4" ht="15.75" customHeight="1">
+      <c r="B11" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="81" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="12" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="13" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="14" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="15" spans="2:4" ht="15.75" customHeight="1"/>
+    <row r="16" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -6115,23 +6191,21 @@
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1"/>
@@ -7134,9 +7208,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desarrollo/Salvame/Documentos/Salvame-CP.xlsx
+++ b/Desarrollo/Salvame/Documentos/Salvame-CP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-Ramsés\CicloVI\GCS\Repositorio\Linea Base\Linea Base 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-Ramsés\CicloVI\GCS\Repositorio\Desarrollo\Salvame\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F51C98-C7D5-4220-B25C-91E536BD39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA51486-CE21-47B5-BE58-459174778700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16020" yWindow="2505" windowWidth="15375" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="165">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Documento de Especificación de Requisitos: Actores</t>
   </si>
   <si>
-    <t>Salvame-A-ER.docx</t>
-  </si>
-  <si>
     <t>Salinas (DP)(A)</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>Documento de Especificación de UI</t>
   </si>
   <si>
-    <t>Salvame-UI-DE.docx</t>
-  </si>
-  <si>
     <t>Ccanto (DUI), Camana (DUI) y Rivera (DUI)</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>Documento de Especificación de la BD</t>
   </si>
   <si>
-    <t>Salvame-BD-DE.docx</t>
-  </si>
-  <si>
     <t>Rosas (DB) y Alata (ADB)</t>
   </si>
   <si>
@@ -496,6 +487,42 @@
   </si>
   <si>
     <t>Bibliotecario</t>
+  </si>
+  <si>
+    <t>Salvame-DERA.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-01.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-02.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-03..docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-04.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-05.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-06.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-07.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-08.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DERCU-09.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DEUI.docx</t>
+  </si>
+  <si>
+    <t>Salvame-DEBD.docx</t>
   </si>
 </sst>
 </file>
@@ -1227,6 +1254,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1234,14 +1269,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1467,8 +1494,8 @@
   </sheetPr>
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1476,7 +1503,7 @@
     <col min="1" max="1" width="2.28515625" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="59.140625" customWidth="1"/>
     <col min="6" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
@@ -1484,7 +1511,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="83"/>
@@ -1497,10 +1524,10 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1777,17 +1804,17 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="91" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="F16" s="30">
         <v>44823</v>
@@ -1804,15 +1831,15 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="88"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="30">
         <v>44823</v>
@@ -1829,15 +1856,15 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="88"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="30">
         <v>44823</v>
@@ -1854,15 +1881,15 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="88"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="30">
         <v>44823</v>
@@ -1879,15 +1906,15 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="88"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="30">
         <v>44823</v>
@@ -1904,15 +1931,15 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="88"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="30">
         <v>44823</v>
@@ -1929,15 +1956,15 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="88"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="30">
         <v>44823</v>
@@ -1954,15 +1981,15 @@
     </row>
     <row r="23" spans="1:12" ht="26.25" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="88"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="30">
         <v>44823</v>
@@ -1979,15 +2006,15 @@
     </row>
     <row r="24" spans="1:12" ht="27" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="30">
         <v>44823</v>
@@ -2004,15 +2031,15 @@
     </row>
     <row r="25" spans="1:12" ht="26.25" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="89"/>
+      <c r="B25" s="86"/>
       <c r="C25" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="30">
         <v>44823</v>
@@ -2030,16 +2057,16 @@
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="14"/>
       <c r="B26" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="D26" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="F26" s="26">
         <v>44823</v>
@@ -2051,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="82" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="32"/>
@@ -2059,16 +2086,16 @@
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="E27" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="F27" s="26">
         <v>44830</v>
@@ -2086,16 +2113,16 @@
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="14"/>
       <c r="B28" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>68</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="F28" s="42">
         <v>44830</v>
@@ -2114,16 +2141,16 @@
     <row r="29" spans="1:12" ht="27" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="F29" s="26">
         <v>44837</v>
@@ -2135,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J29" s="31"/>
       <c r="K29" s="32"/>
@@ -2143,16 +2170,16 @@
     <row r="30" spans="1:12" ht="26.25" customHeight="1">
       <c r="A30" s="14"/>
       <c r="B30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="F30" s="26">
         <v>44837</v>
@@ -2164,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="82" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J30" s="31"/>
       <c r="K30" s="32"/>
@@ -2172,16 +2199,16 @@
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="F31" s="26">
         <v>44837</v>
@@ -2199,7 +2226,7 @@
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="14"/>
       <c r="B32" s="45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C32" s="46"/>
       <c r="D32" s="47"/>
@@ -2213,17 +2240,17 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="90" t="s">
-        <v>87</v>
+      <c r="B33" s="84" t="s">
+        <v>84</v>
       </c>
       <c r="C33" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="26">
         <v>44844</v>
@@ -2235,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="I33" s="82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J33" s="31"/>
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="88"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="26">
         <v>44844</v>
@@ -2267,15 +2294,15 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="14"/>
-      <c r="B35" s="88"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="26">
         <v>44844</v>
@@ -2292,15 +2319,15 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="88"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="26">
         <v>44844</v>
@@ -2317,15 +2344,15 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="88"/>
+      <c r="B37" s="85"/>
       <c r="C37" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="26">
         <v>44844</v>
@@ -2342,15 +2369,15 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="14"/>
-      <c r="B38" s="88"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="26">
         <v>44844</v>
@@ -2367,15 +2394,15 @@
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="88"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="26">
         <v>44844</v>
@@ -2392,15 +2419,15 @@
     </row>
     <row r="40" spans="1:11" ht="24" customHeight="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="88"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="26">
         <v>44844</v>
@@ -2417,15 +2444,15 @@
     </row>
     <row r="41" spans="1:11" ht="23.25" customHeight="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="88"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="26">
         <v>44844</v>
@@ -2442,15 +2469,15 @@
     </row>
     <row r="42" spans="1:11" ht="27" customHeight="1">
       <c r="A42" s="14"/>
-      <c r="B42" s="89"/>
+      <c r="B42" s="86"/>
       <c r="C42" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="26">
         <v>44844</v>
@@ -2468,13 +2495,13 @@
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="14"/>
       <c r="B43" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>18</v>
@@ -2495,16 +2522,16 @@
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="14"/>
       <c r="B44" s="52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F44" s="26">
         <v>44844</v>
@@ -2522,16 +2549,16 @@
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="14"/>
       <c r="B45" s="54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="F45" s="26">
         <v>44844</v>
@@ -2549,16 +2576,16 @@
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="14"/>
       <c r="B46" s="55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D46" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F46" s="26">
         <v>44844</v>
@@ -2576,16 +2603,16 @@
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="14"/>
       <c r="B47" s="55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F47" s="26">
         <v>44844</v>
@@ -2603,16 +2630,16 @@
     <row r="48" spans="1:11" ht="26.25" customHeight="1">
       <c r="A48" s="14"/>
       <c r="B48" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F48" s="26">
         <v>44851</v>
@@ -2624,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="82" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J48" s="31"/>
       <c r="K48" s="2"/>
@@ -2632,16 +2659,16 @@
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
       <c r="A49" s="14"/>
       <c r="B49" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>85</v>
       </c>
       <c r="F49" s="26">
         <v>44851</v>
@@ -2659,7 +2686,7 @@
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
       <c r="A50" s="14"/>
       <c r="B50" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" s="57"/>
       <c r="D50" s="58"/>
@@ -2674,16 +2701,16 @@
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="14"/>
       <c r="B51" s="55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F51" s="26">
         <v>44858</v>
@@ -2695,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="82" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J51" s="31"/>
       <c r="K51" s="2"/>
@@ -2703,16 +2730,16 @@
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="14"/>
       <c r="B52" s="55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F52" s="26">
         <v>44858</v>
@@ -2729,17 +2756,17 @@
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="14"/>
-      <c r="B53" s="91" t="s">
-        <v>109</v>
+      <c r="B53" s="87" t="s">
+        <v>106</v>
       </c>
       <c r="C53" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" s="26">
         <v>44858</v>
@@ -2756,15 +2783,15 @@
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="14"/>
-      <c r="B54" s="88"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="38" t="s">
-        <v>42</v>
-      </c>
       <c r="E54" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F54" s="26">
         <v>44858</v>
@@ -2781,15 +2808,15 @@
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="14"/>
-      <c r="B55" s="88"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>44</v>
-      </c>
       <c r="E55" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="26">
         <v>44858</v>
@@ -2806,15 +2833,15 @@
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="14"/>
-      <c r="B56" s="88"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>46</v>
-      </c>
       <c r="E56" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" s="26">
         <v>44858</v>
@@ -2831,15 +2858,15 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="14"/>
-      <c r="B57" s="88"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="E57" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" s="26">
         <v>44858</v>
@@ -2856,15 +2883,15 @@
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="14"/>
-      <c r="B58" s="88"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D58" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="E58" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F58" s="26">
         <v>44858</v>
@@ -2881,15 +2908,15 @@
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="14"/>
-      <c r="B59" s="88"/>
+      <c r="B59" s="85"/>
       <c r="C59" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>52</v>
-      </c>
       <c r="E59" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F59" s="26">
         <v>44858</v>
@@ -2906,15 +2933,15 @@
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="14"/>
-      <c r="B60" s="88"/>
+      <c r="B60" s="85"/>
       <c r="C60" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="38" t="s">
-        <v>54</v>
-      </c>
       <c r="E60" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F60" s="26">
         <v>44858</v>
@@ -2931,15 +2958,15 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="14"/>
-      <c r="B61" s="88"/>
+      <c r="B61" s="85"/>
       <c r="C61" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D61" s="38" t="s">
-        <v>56</v>
-      </c>
       <c r="E61" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F61" s="26">
         <v>44858</v>
@@ -2956,15 +2983,15 @@
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="14"/>
-      <c r="B62" s="89"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="38" t="s">
-        <v>58</v>
-      </c>
       <c r="E62" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F62" s="26">
         <v>44858</v>
@@ -2982,16 +3009,16 @@
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="14"/>
       <c r="B63" s="51" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F63" s="26">
         <v>44858</v>
@@ -3009,16 +3036,16 @@
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="14"/>
       <c r="B64" s="52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C64" s="61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F64" s="26">
         <v>44858</v>
@@ -3036,16 +3063,16 @@
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="14"/>
       <c r="B65" s="44" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F65" s="26">
         <v>44858</v>
@@ -3063,7 +3090,7 @@
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="14"/>
       <c r="B66" s="44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C66" s="56" t="s">
         <v>35</v>
@@ -3072,7 +3099,7 @@
         <v>36</v>
       </c>
       <c r="E66" s="53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F66" s="26">
         <v>44858</v>
@@ -3105,16 +3132,16 @@
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="14"/>
       <c r="B67" s="44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F67" s="26">
         <v>44872</v>
@@ -3147,16 +3174,16 @@
     <row r="68" spans="1:26" ht="15" customHeight="1">
       <c r="A68" s="14"/>
       <c r="B68" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" s="53" t="s">
         <v>118</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>121</v>
       </c>
       <c r="F68" s="26">
         <v>44872</v>
@@ -3174,16 +3201,16 @@
     <row r="69" spans="1:26" ht="13.5" customHeight="1">
       <c r="A69" s="14"/>
       <c r="B69" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="53" t="s">
         <v>122</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="53" t="s">
-        <v>125</v>
       </c>
       <c r="F69" s="26">
         <v>44872</v>
@@ -3195,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="82" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J69" s="31"/>
       <c r="K69" s="2"/>
@@ -3203,16 +3230,16 @@
     <row r="70" spans="1:26" ht="26.25" customHeight="1">
       <c r="A70" s="14"/>
       <c r="B70" s="44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F70" s="26">
         <v>44879</v>
@@ -3230,16 +3257,16 @@
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="14"/>
       <c r="B71" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="53" t="s">
         <v>82</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="53" t="s">
-        <v>85</v>
       </c>
       <c r="F71" s="26">
         <v>44879</v>
@@ -3251,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J71" s="31"/>
       <c r="K71" s="2"/>
@@ -3259,16 +3286,16 @@
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="14"/>
       <c r="B72" s="62" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C72" s="63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E72" s="53" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F72" s="26">
         <v>44879</v>
@@ -3286,7 +3313,7 @@
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="64" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C73" s="65"/>
       <c r="D73" s="66"/>
@@ -5061,6 +5088,8 @@
     <row r="1029" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="I71:I73"/>
     <mergeCell ref="I30:I32"/>
     <mergeCell ref="B33:B42"/>
     <mergeCell ref="B53:B62"/>
@@ -5072,11 +5101,9 @@
     <mergeCell ref="I33:I47"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="I51:I68"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="I71:I73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5099,103 +5126,103 @@
     <row r="1" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:4" ht="15.75" customHeight="1">
       <c r="B2" s="73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1">
       <c r="B3" s="92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="93"/>
-      <c r="D3" s="86"/>
+      <c r="D3" s="90"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1">
       <c r="B4" s="74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1">
       <c r="B5" s="77" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1">
       <c r="B6" s="77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1">
       <c r="B7" s="77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1">
       <c r="B8" s="79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1">
       <c r="B9" s="77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1">
       <c r="B10" s="77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1">
       <c r="B11" s="80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1"/>

--- a/Desarrollo/Salvame/Documentos/Salvame-CP.xlsx
+++ b/Desarrollo/Salvame/Documentos/Salvame-CP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-Ramsés\CicloVI\GCS\Repositorio\Desarrollo\Salvame\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA51486-CE21-47B5-BE58-459174778700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5506098-F6AC-41CD-9597-0282521AC154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16020" yWindow="2505" windowWidth="15375" windowHeight="10410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma #1" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -653,11 +653,6 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
@@ -724,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -960,21 +955,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1067,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1190,57 +1170,54 @@
     <xf numFmtId="9" fontId="17" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1270,10 +1247,10 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1494,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63:D64"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1511,23 +1488,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1715,7 +1692,7 @@
       <c r="H12" s="27">
         <v>1</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="81" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="31"/>
@@ -1744,7 +1721,7 @@
       <c r="H13" s="27">
         <v>1</v>
       </c>
-      <c r="I13" s="83"/>
+      <c r="I13" s="82"/>
       <c r="J13" s="31"/>
       <c r="K13" s="32"/>
     </row>
@@ -1771,7 +1748,7 @@
       <c r="H14" s="27">
         <v>1</v>
       </c>
-      <c r="I14" s="83"/>
+      <c r="I14" s="82"/>
       <c r="J14" s="2"/>
       <c r="K14" s="35"/>
     </row>
@@ -1798,13 +1775,13 @@
       <c r="H15" s="27">
         <v>1</v>
       </c>
-      <c r="I15" s="83"/>
+      <c r="I15" s="82"/>
       <c r="J15" s="31"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="37" t="s">
@@ -1825,13 +1802,13 @@
       <c r="H16" s="27">
         <v>1</v>
       </c>
-      <c r="I16" s="83"/>
+      <c r="I16" s="82"/>
       <c r="J16" s="31"/>
       <c r="K16" s="32"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="14"/>
-      <c r="B17" s="85"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="37" t="s">
         <v>40</v>
       </c>
@@ -1856,7 +1833,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="85"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="37" t="s">
         <v>42</v>
       </c>
@@ -1881,7 +1858,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="14"/>
-      <c r="B19" s="85"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="37" t="s">
         <v>44</v>
       </c>
@@ -1906,7 +1883,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="85"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="37" t="s">
         <v>46</v>
       </c>
@@ -1931,7 +1908,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="14"/>
-      <c r="B21" s="85"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="37" t="s">
         <v>48</v>
       </c>
@@ -1956,7 +1933,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="14"/>
-      <c r="B22" s="85"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="37" t="s">
         <v>50</v>
       </c>
@@ -1981,7 +1958,7 @@
     </row>
     <row r="23" spans="1:12" ht="26.25" customHeight="1">
       <c r="A23" s="14"/>
-      <c r="B23" s="85"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="37" t="s">
         <v>52</v>
       </c>
@@ -2006,7 +1983,7 @@
     </row>
     <row r="24" spans="1:12" ht="27" customHeight="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="85"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="37" t="s">
         <v>54</v>
       </c>
@@ -2031,7 +2008,7 @@
     </row>
     <row r="25" spans="1:12" ht="26.25" customHeight="1">
       <c r="A25" s="14"/>
-      <c r="B25" s="86"/>
+      <c r="B25" s="85"/>
       <c r="C25" s="37" t="s">
         <v>56</v>
       </c>
@@ -2077,7 +2054,7 @@
       <c r="H26" s="27">
         <v>1</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="81" t="s">
         <v>61</v>
       </c>
       <c r="J26" s="31"/>
@@ -2106,7 +2083,7 @@
       <c r="H27" s="27">
         <v>1</v>
       </c>
-      <c r="I27" s="83"/>
+      <c r="I27" s="82"/>
       <c r="J27" s="31"/>
       <c r="K27" s="32"/>
     </row>
@@ -2133,7 +2110,7 @@
       <c r="H28" s="27">
         <v>1</v>
       </c>
-      <c r="I28" s="83"/>
+      <c r="I28" s="82"/>
       <c r="J28" s="31"/>
       <c r="K28" s="36"/>
       <c r="L28" s="43"/>
@@ -2190,7 +2167,7 @@
       <c r="H30" s="27">
         <v>1</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="81" t="s">
         <v>78</v>
       </c>
       <c r="J30" s="31"/>
@@ -2219,7 +2196,7 @@
       <c r="H31" s="27">
         <v>1</v>
       </c>
-      <c r="I31" s="83"/>
+      <c r="I31" s="82"/>
       <c r="J31" s="31"/>
       <c r="K31" s="32"/>
     </row>
@@ -2236,11 +2213,11 @@
         <v>44844</v>
       </c>
       <c r="H32" s="49"/>
-      <c r="I32" s="83"/>
+      <c r="I32" s="82"/>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1">
       <c r="A33" s="14"/>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="83" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="37" t="s">
@@ -2258,10 +2235,10 @@
       <c r="G33" s="26">
         <v>44851</v>
       </c>
-      <c r="H33" s="50">
-        <v>0</v>
-      </c>
-      <c r="I33" s="82" t="s">
+      <c r="H33" s="27">
+        <v>1</v>
+      </c>
+      <c r="I33" s="81" t="s">
         <v>86</v>
       </c>
       <c r="J33" s="31"/>
@@ -2269,7 +2246,7 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
       <c r="A34" s="14"/>
-      <c r="B34" s="85"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="37" t="s">
         <v>40</v>
       </c>
@@ -2286,15 +2263,15 @@
         <v>44851</v>
       </c>
       <c r="H34" s="27">
-        <v>0</v>
-      </c>
-      <c r="I34" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="82"/>
       <c r="J34" s="31"/>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1">
       <c r="A35" s="14"/>
-      <c r="B35" s="85"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="37" t="s">
         <v>42</v>
       </c>
@@ -2310,16 +2287,16 @@
       <c r="G35" s="26">
         <v>44851</v>
       </c>
-      <c r="H35" s="50">
-        <v>0</v>
-      </c>
-      <c r="I35" s="83"/>
+      <c r="H35" s="27">
+        <v>1</v>
+      </c>
+      <c r="I35" s="82"/>
       <c r="J35" s="31"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1">
       <c r="A36" s="14"/>
-      <c r="B36" s="85"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="37" t="s">
         <v>44</v>
       </c>
@@ -2335,16 +2312,16 @@
       <c r="G36" s="26">
         <v>44851</v>
       </c>
-      <c r="H36" s="50">
-        <v>0</v>
-      </c>
-      <c r="I36" s="83"/>
+      <c r="H36" s="27">
+        <v>1</v>
+      </c>
+      <c r="I36" s="82"/>
       <c r="J36" s="31"/>
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1">
       <c r="A37" s="14"/>
-      <c r="B37" s="85"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="37" t="s">
         <v>46</v>
       </c>
@@ -2360,16 +2337,16 @@
       <c r="G37" s="26">
         <v>44851</v>
       </c>
-      <c r="H37" s="50">
-        <v>0</v>
-      </c>
-      <c r="I37" s="83"/>
+      <c r="H37" s="27">
+        <v>1</v>
+      </c>
+      <c r="I37" s="82"/>
       <c r="J37" s="31"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1">
       <c r="A38" s="14"/>
-      <c r="B38" s="85"/>
+      <c r="B38" s="84"/>
       <c r="C38" s="37" t="s">
         <v>48</v>
       </c>
@@ -2385,16 +2362,16 @@
       <c r="G38" s="26">
         <v>44851</v>
       </c>
-      <c r="H38" s="50">
-        <v>0</v>
-      </c>
-      <c r="I38" s="83"/>
+      <c r="H38" s="27">
+        <v>1</v>
+      </c>
+      <c r="I38" s="82"/>
       <c r="J38" s="31"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
       <c r="A39" s="14"/>
-      <c r="B39" s="85"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="37" t="s">
         <v>50</v>
       </c>
@@ -2410,16 +2387,16 @@
       <c r="G39" s="26">
         <v>44851</v>
       </c>
-      <c r="H39" s="50">
-        <v>0</v>
-      </c>
-      <c r="I39" s="83"/>
+      <c r="H39" s="27">
+        <v>1</v>
+      </c>
+      <c r="I39" s="82"/>
       <c r="J39" s="31"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="24" customHeight="1">
       <c r="A40" s="14"/>
-      <c r="B40" s="85"/>
+      <c r="B40" s="84"/>
       <c r="C40" s="37" t="s">
         <v>52</v>
       </c>
@@ -2435,16 +2412,16 @@
       <c r="G40" s="26">
         <v>44851</v>
       </c>
-      <c r="H40" s="50">
-        <v>0</v>
-      </c>
-      <c r="I40" s="83"/>
+      <c r="H40" s="27">
+        <v>1</v>
+      </c>
+      <c r="I40" s="82"/>
       <c r="J40" s="31"/>
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="23.25" customHeight="1">
       <c r="A41" s="14"/>
-      <c r="B41" s="85"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="37" t="s">
         <v>54</v>
       </c>
@@ -2460,16 +2437,16 @@
       <c r="G41" s="26">
         <v>44851</v>
       </c>
-      <c r="H41" s="50">
-        <v>0</v>
-      </c>
-      <c r="I41" s="83"/>
+      <c r="H41" s="27">
+        <v>1</v>
+      </c>
+      <c r="I41" s="82"/>
       <c r="J41" s="31"/>
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="27" customHeight="1">
       <c r="A42" s="14"/>
-      <c r="B42" s="86"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="37" t="s">
         <v>56</v>
       </c>
@@ -2485,16 +2462,16 @@
       <c r="G42" s="26">
         <v>44851</v>
       </c>
-      <c r="H42" s="50">
-        <v>0</v>
-      </c>
-      <c r="I42" s="83"/>
+      <c r="H42" s="27">
+        <v>1</v>
+      </c>
+      <c r="I42" s="82"/>
       <c r="J42" s="31"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1">
       <c r="A43" s="14"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="50" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="29" t="s">
@@ -2512,16 +2489,16 @@
       <c r="G43" s="26">
         <v>44851</v>
       </c>
-      <c r="H43" s="50">
-        <v>0</v>
-      </c>
-      <c r="I43" s="83"/>
+      <c r="H43" s="27">
+        <v>1</v>
+      </c>
+      <c r="I43" s="82"/>
       <c r="J43" s="31"/>
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1">
       <c r="A44" s="14"/>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="51" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="41" t="s">
@@ -2530,7 +2507,7 @@
       <c r="D44" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="52" t="s">
         <v>89</v>
       </c>
       <c r="F44" s="26">
@@ -2539,16 +2516,16 @@
       <c r="G44" s="26">
         <v>44851</v>
       </c>
-      <c r="H44" s="50">
-        <v>0</v>
-      </c>
-      <c r="I44" s="83"/>
+      <c r="H44" s="27">
+        <v>1</v>
+      </c>
+      <c r="I44" s="82"/>
       <c r="J44" s="31"/>
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
       <c r="A45" s="14"/>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>90</v>
       </c>
       <c r="C45" s="34" t="s">
@@ -2566,16 +2543,16 @@
       <c r="G45" s="26">
         <v>44851</v>
       </c>
-      <c r="H45" s="50">
-        <v>0</v>
-      </c>
-      <c r="I45" s="83"/>
+      <c r="H45" s="27">
+        <v>1</v>
+      </c>
+      <c r="I45" s="82"/>
       <c r="J45" s="31"/>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
       <c r="A46" s="14"/>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="54" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="29" t="s">
@@ -2584,7 +2561,7 @@
       <c r="D46" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="52" t="s">
         <v>93</v>
       </c>
       <c r="F46" s="26">
@@ -2593,16 +2570,16 @@
       <c r="G46" s="26">
         <v>44858</v>
       </c>
-      <c r="H46" s="50">
-        <v>0</v>
-      </c>
-      <c r="I46" s="83"/>
+      <c r="H46" s="27">
+        <v>1</v>
+      </c>
+      <c r="I46" s="82"/>
       <c r="J46" s="31"/>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1">
       <c r="A47" s="14"/>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="54" t="s">
         <v>94</v>
       </c>
       <c r="C47" s="29" t="s">
@@ -2611,7 +2588,7 @@
       <c r="D47" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="52" t="s">
         <v>93</v>
       </c>
       <c r="F47" s="26">
@@ -2620,10 +2597,10 @@
       <c r="G47" s="26">
         <v>44858</v>
       </c>
-      <c r="H47" s="50">
-        <v>0</v>
-      </c>
-      <c r="I47" s="83"/>
+      <c r="H47" s="27">
+        <v>1</v>
+      </c>
+      <c r="I47" s="82"/>
       <c r="J47" s="31"/>
       <c r="K47" s="2"/>
     </row>
@@ -2647,10 +2624,10 @@
       <c r="G48" s="26">
         <v>44858</v>
       </c>
-      <c r="H48" s="50">
-        <v>0</v>
-      </c>
-      <c r="I48" s="82" t="s">
+      <c r="H48" s="27">
+        <v>1</v>
+      </c>
+      <c r="I48" s="81" t="s">
         <v>97</v>
       </c>
       <c r="J48" s="31"/>
@@ -2661,7 +2638,7 @@
       <c r="B49" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="55" t="s">
         <v>98</v>
       </c>
       <c r="D49" s="24" t="s">
@@ -2676,10 +2653,10 @@
       <c r="G49" s="26">
         <v>44858</v>
       </c>
-      <c r="H49" s="50">
-        <v>0</v>
-      </c>
-      <c r="I49" s="83"/>
+      <c r="H49" s="27">
+        <v>1</v>
+      </c>
+      <c r="I49" s="82"/>
       <c r="J49" s="31"/>
       <c r="K49" s="2"/>
     </row>
@@ -2688,19 +2665,19 @@
       <c r="B50" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="59"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="48">
         <v>44858</v>
       </c>
-      <c r="H50" s="60"/>
-      <c r="I50" s="83"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="82"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
       <c r="A51" s="14"/>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="54" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="29" t="s">
@@ -2709,7 +2686,7 @@
       <c r="D51" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="E51" s="52" t="s">
         <v>93</v>
       </c>
       <c r="F51" s="26">
@@ -2721,7 +2698,7 @@
       <c r="H51" s="27">
         <v>0</v>
       </c>
-      <c r="I51" s="82" t="s">
+      <c r="I51" s="81" t="s">
         <v>103</v>
       </c>
       <c r="J51" s="31"/>
@@ -2729,7 +2706,7 @@
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
       <c r="A52" s="14"/>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="54" t="s">
         <v>104</v>
       </c>
       <c r="C52" s="29" t="s">
@@ -2738,7 +2715,7 @@
       <c r="D52" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="52" t="s">
         <v>93</v>
       </c>
       <c r="F52" s="26">
@@ -2750,13 +2727,13 @@
       <c r="H52" s="27">
         <v>0</v>
       </c>
-      <c r="I52" s="83"/>
+      <c r="I52" s="82"/>
       <c r="J52" s="31"/>
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
       <c r="A53" s="14"/>
-      <c r="B53" s="87" t="s">
+      <c r="B53" s="86" t="s">
         <v>106</v>
       </c>
       <c r="C53" s="37" t="s">
@@ -2777,13 +2754,13 @@
       <c r="H53" s="27">
         <v>0</v>
       </c>
-      <c r="I53" s="83"/>
+      <c r="I53" s="82"/>
       <c r="J53" s="31"/>
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" customHeight="1">
       <c r="A54" s="14"/>
-      <c r="B54" s="85"/>
+      <c r="B54" s="84"/>
       <c r="C54" s="37" t="s">
         <v>40</v>
       </c>
@@ -2802,13 +2779,13 @@
       <c r="H54" s="27">
         <v>0</v>
       </c>
-      <c r="I54" s="83"/>
+      <c r="I54" s="82"/>
       <c r="J54" s="31"/>
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" ht="15.75" customHeight="1">
       <c r="A55" s="14"/>
-      <c r="B55" s="85"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="37" t="s">
         <v>42</v>
       </c>
@@ -2827,13 +2804,13 @@
       <c r="H55" s="27">
         <v>0</v>
       </c>
-      <c r="I55" s="83"/>
+      <c r="I55" s="82"/>
       <c r="J55" s="31"/>
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
       <c r="A56" s="14"/>
-      <c r="B56" s="85"/>
+      <c r="B56" s="84"/>
       <c r="C56" s="37" t="s">
         <v>44</v>
       </c>
@@ -2852,13 +2829,13 @@
       <c r="H56" s="27">
         <v>0</v>
       </c>
-      <c r="I56" s="83"/>
+      <c r="I56" s="82"/>
       <c r="J56" s="31"/>
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
       <c r="A57" s="14"/>
-      <c r="B57" s="85"/>
+      <c r="B57" s="84"/>
       <c r="C57" s="37" t="s">
         <v>46</v>
       </c>
@@ -2877,13 +2854,13 @@
       <c r="H57" s="27">
         <v>0</v>
       </c>
-      <c r="I57" s="83"/>
+      <c r="I57" s="82"/>
       <c r="J57" s="31"/>
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="15.75" customHeight="1">
       <c r="A58" s="14"/>
-      <c r="B58" s="85"/>
+      <c r="B58" s="84"/>
       <c r="C58" s="37" t="s">
         <v>48</v>
       </c>
@@ -2902,13 +2879,13 @@
       <c r="H58" s="27">
         <v>0</v>
       </c>
-      <c r="I58" s="83"/>
+      <c r="I58" s="82"/>
       <c r="J58" s="31"/>
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="15.75" customHeight="1">
       <c r="A59" s="14"/>
-      <c r="B59" s="85"/>
+      <c r="B59" s="84"/>
       <c r="C59" s="37" t="s">
         <v>50</v>
       </c>
@@ -2927,13 +2904,13 @@
       <c r="H59" s="27">
         <v>0</v>
       </c>
-      <c r="I59" s="83"/>
+      <c r="I59" s="82"/>
       <c r="J59" s="31"/>
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="15.75" customHeight="1">
       <c r="A60" s="14"/>
-      <c r="B60" s="85"/>
+      <c r="B60" s="84"/>
       <c r="C60" s="37" t="s">
         <v>52</v>
       </c>
@@ -2952,13 +2929,13 @@
       <c r="H60" s="27">
         <v>0</v>
       </c>
-      <c r="I60" s="83"/>
+      <c r="I60" s="82"/>
       <c r="J60" s="31"/>
       <c r="K60" s="2"/>
     </row>
     <row r="61" spans="1:11" ht="15.75" customHeight="1">
       <c r="A61" s="14"/>
-      <c r="B61" s="85"/>
+      <c r="B61" s="84"/>
       <c r="C61" s="37" t="s">
         <v>54</v>
       </c>
@@ -2977,13 +2954,13 @@
       <c r="H61" s="27">
         <v>0</v>
       </c>
-      <c r="I61" s="83"/>
+      <c r="I61" s="82"/>
       <c r="J61" s="31"/>
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="15.75" customHeight="1">
       <c r="A62" s="14"/>
-      <c r="B62" s="86"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="37" t="s">
         <v>56</v>
       </c>
@@ -3002,13 +2979,13 @@
       <c r="H62" s="27">
         <v>0</v>
       </c>
-      <c r="I62" s="83"/>
+      <c r="I62" s="82"/>
       <c r="J62" s="31"/>
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="15.75" customHeight="1">
       <c r="A63" s="14"/>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="50" t="s">
         <v>87</v>
       </c>
       <c r="C63" s="29" t="s">
@@ -3017,7 +2994,7 @@
       <c r="D63" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="E63" s="52" t="s">
         <v>107</v>
       </c>
       <c r="F63" s="26">
@@ -3029,22 +3006,22 @@
       <c r="H63" s="27">
         <v>0</v>
       </c>
-      <c r="I63" s="83"/>
+      <c r="I63" s="82"/>
       <c r="J63" s="31"/>
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="15.75" customHeight="1">
       <c r="A64" s="14"/>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="61" t="s">
+      <c r="C64" s="60" t="s">
         <v>67</v>
       </c>
       <c r="D64" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E64" s="53" t="s">
+      <c r="E64" s="52" t="s">
         <v>109</v>
       </c>
       <c r="F64" s="26">
@@ -3056,7 +3033,7 @@
       <c r="H64" s="27">
         <v>0</v>
       </c>
-      <c r="I64" s="83"/>
+      <c r="I64" s="82"/>
       <c r="J64" s="31"/>
       <c r="K64" s="2"/>
     </row>
@@ -3065,13 +3042,13 @@
       <c r="B65" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="56" t="s">
+      <c r="C65" s="55" t="s">
         <v>70</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="52" t="s">
         <v>111</v>
       </c>
       <c r="F65" s="26">
@@ -3083,7 +3060,7 @@
       <c r="H65" s="27">
         <v>0</v>
       </c>
-      <c r="I65" s="83"/>
+      <c r="I65" s="82"/>
       <c r="J65" s="31"/>
       <c r="K65" s="2"/>
     </row>
@@ -3092,13 +3069,13 @@
       <c r="B66" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="56" t="s">
+      <c r="C66" s="55" t="s">
         <v>35</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="52" t="s">
         <v>82</v>
       </c>
       <c r="F66" s="26">
@@ -3110,7 +3087,7 @@
       <c r="H66" s="27">
         <v>0</v>
       </c>
-      <c r="I66" s="83"/>
+      <c r="I66" s="82"/>
       <c r="J66" s="31"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -3134,13 +3111,13 @@
       <c r="B67" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="56" t="s">
+      <c r="C67" s="55" t="s">
         <v>63</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="E67" s="52" t="s">
         <v>114</v>
       </c>
       <c r="F67" s="26">
@@ -3152,7 +3129,7 @@
       <c r="H67" s="27">
         <v>0</v>
       </c>
-      <c r="I67" s="83"/>
+      <c r="I67" s="82"/>
       <c r="J67" s="31"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -3176,13 +3153,13 @@
       <c r="B68" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="55" t="s">
         <v>116</v>
       </c>
       <c r="D68" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="52" t="s">
         <v>118</v>
       </c>
       <c r="F68" s="26">
@@ -3194,7 +3171,7 @@
       <c r="H68" s="27">
         <v>0</v>
       </c>
-      <c r="I68" s="83"/>
+      <c r="I68" s="82"/>
       <c r="J68" s="31"/>
       <c r="K68" s="2"/>
     </row>
@@ -3203,13 +3180,13 @@
       <c r="B69" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="56" t="s">
+      <c r="C69" s="55" t="s">
         <v>120</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="E69" s="53" t="s">
+      <c r="E69" s="52" t="s">
         <v>122</v>
       </c>
       <c r="F69" s="26">
@@ -3221,7 +3198,7 @@
       <c r="H69" s="27">
         <v>0</v>
       </c>
-      <c r="I69" s="82" t="s">
+      <c r="I69" s="81" t="s">
         <v>123</v>
       </c>
       <c r="J69" s="31"/>
@@ -3232,13 +3209,13 @@
       <c r="B70" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="55" t="s">
         <v>75</v>
       </c>
       <c r="D70" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="53" t="s">
+      <c r="E70" s="52" t="s">
         <v>124</v>
       </c>
       <c r="F70" s="26">
@@ -3250,7 +3227,7 @@
       <c r="H70" s="27">
         <v>0</v>
       </c>
-      <c r="I70" s="83"/>
+      <c r="I70" s="82"/>
       <c r="J70" s="31"/>
       <c r="K70" s="2"/>
     </row>
@@ -3259,13 +3236,13 @@
       <c r="B71" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="55" t="s">
         <v>125</v>
       </c>
       <c r="D71" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="53" t="s">
+      <c r="E71" s="52" t="s">
         <v>82</v>
       </c>
       <c r="F71" s="26">
@@ -3277,7 +3254,7 @@
       <c r="H71" s="27">
         <v>0</v>
       </c>
-      <c r="I71" s="82" t="s">
+      <c r="I71" s="81" t="s">
         <v>127</v>
       </c>
       <c r="J71" s="31"/>
@@ -3285,16 +3262,16 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="14"/>
-      <c r="B72" s="62" t="s">
+      <c r="B72" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="63" t="s">
+      <c r="C72" s="62" t="s">
         <v>129</v>
       </c>
       <c r="D72" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E72" s="52" t="s">
         <v>82</v>
       </c>
       <c r="F72" s="26">
@@ -3306,36 +3283,36 @@
       <c r="H72" s="27">
         <v>0</v>
       </c>
-      <c r="I72" s="83"/>
+      <c r="I72" s="82"/>
       <c r="J72" s="31"/>
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="14"/>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68">
+      <c r="C73" s="64"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67">
         <v>44886</v>
       </c>
-      <c r="H73" s="69"/>
-      <c r="I73" s="83"/>
+      <c r="H73" s="68"/>
+      <c r="I73" s="82"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B74" s="70"/>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="71"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B75" s="72"/>
+      <c r="B75" s="71"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -5088,16 +5065,16 @@
     <row r="1029" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="B16:B25"/>
+    <mergeCell ref="I26:I28"/>
     <mergeCell ref="I69:I70"/>
     <mergeCell ref="I71:I73"/>
     <mergeCell ref="I30:I32"/>
     <mergeCell ref="B33:B42"/>
     <mergeCell ref="B53:B62"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="B16:B25"/>
-    <mergeCell ref="I26:I28"/>
     <mergeCell ref="I33:I47"/>
     <mergeCell ref="I48:I50"/>
     <mergeCell ref="I51:I68"/>
@@ -5125,103 +5102,103 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="90"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="89"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="75" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="77" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="77" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="77" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="77" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="77" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="80" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Desarrollo/Salvame/Documentos/Salvame-CP.xlsx
+++ b/Desarrollo/Salvame/Documentos/Salvame-CP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\U-Ramsés\CicloVI\GCS\Repositorio\Desarrollo\Salvame\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5506098-F6AC-41CD-9597-0282521AC154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07CE2CA-8A74-49A8-9467-D13BEB525D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,9 +384,6 @@
     <t>Salvame-MU.docx</t>
   </si>
   <si>
-    <t>Salinas (DP)(A), Rosas(DB)</t>
-  </si>
-  <si>
     <t>Realizar Pruebas finales del Software</t>
   </si>
   <si>
@@ -396,9 +393,6 @@
     <t>Salvame-DPS.docx</t>
   </si>
   <si>
-    <t>Salinas (DP), Rivera(DF),  Mitac(DF), Alata(DF), Ccanto (DF), Camana (DF)</t>
-  </si>
-  <si>
     <t>S9</t>
   </si>
   <si>
@@ -523,6 +517,12 @@
   </si>
   <si>
     <t>Salvame-DEBD.docx</t>
+  </si>
+  <si>
+    <t>Rosas(DB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rivera(DF),  Mitac(DF), Alata(DF), Ccanto (DF), Camana (DF)</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:Z1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1788,7 +1788,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>39</v>
@@ -1813,7 +1813,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>39</v>
@@ -1838,7 +1838,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>39</v>
@@ -1863,7 +1863,7 @@
         <v>44</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>39</v>
@@ -1888,7 +1888,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>39</v>
@@ -1913,7 +1913,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>39</v>
@@ -1938,7 +1938,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>39</v>
@@ -1963,7 +1963,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>39</v>
@@ -1988,7 +1988,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>39</v>
@@ -2013,7 +2013,7 @@
         <v>56</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>39</v>
@@ -2040,7 +2040,7 @@
         <v>59</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>60</v>
@@ -2096,7 +2096,7 @@
         <v>67</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>68</v>
@@ -2224,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>39</v>
@@ -2251,7 +2251,7 @@
         <v>40</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>39</v>
@@ -2276,7 +2276,7 @@
         <v>42</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>39</v>
@@ -2301,7 +2301,7 @@
         <v>44</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>39</v>
@@ -2326,7 +2326,7 @@
         <v>46</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>39</v>
@@ -2351,7 +2351,7 @@
         <v>48</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>39</v>
@@ -2376,7 +2376,7 @@
         <v>50</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>39</v>
@@ -2401,7 +2401,7 @@
         <v>52</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>39</v>
@@ -2426,7 +2426,7 @@
         <v>54</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>39</v>
@@ -2451,7 +2451,7 @@
         <v>56</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>39</v>
@@ -2478,7 +2478,7 @@
         <v>59</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>18</v>
@@ -2505,7 +2505,7 @@
         <v>67</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>89</v>
@@ -2696,7 +2696,7 @@
         <v>44879</v>
       </c>
       <c r="H51" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="81" t="s">
         <v>103</v>
@@ -2725,7 +2725,7 @@
         <v>44879</v>
       </c>
       <c r="H52" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="82"/>
       <c r="J52" s="31"/>
@@ -2752,7 +2752,7 @@
         <v>44865</v>
       </c>
       <c r="H53" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="82"/>
       <c r="J53" s="31"/>
@@ -2777,7 +2777,7 @@
         <v>44865</v>
       </c>
       <c r="H54" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="82"/>
       <c r="J54" s="31"/>
@@ -2802,7 +2802,7 @@
         <v>44865</v>
       </c>
       <c r="H55" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="82"/>
       <c r="J55" s="31"/>
@@ -2827,7 +2827,7 @@
         <v>44865</v>
       </c>
       <c r="H56" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="82"/>
       <c r="J56" s="31"/>
@@ -2852,7 +2852,7 @@
         <v>44865</v>
       </c>
       <c r="H57" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="82"/>
       <c r="J57" s="31"/>
@@ -2877,7 +2877,7 @@
         <v>44865</v>
       </c>
       <c r="H58" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="82"/>
       <c r="J58" s="31"/>
@@ -2902,7 +2902,7 @@
         <v>44865</v>
       </c>
       <c r="H59" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="82"/>
       <c r="J59" s="31"/>
@@ -2927,7 +2927,7 @@
         <v>44865</v>
       </c>
       <c r="H60" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" s="82"/>
       <c r="J60" s="31"/>
@@ -2952,7 +2952,7 @@
         <v>44865</v>
       </c>
       <c r="H61" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" s="82"/>
       <c r="J61" s="31"/>
@@ -2977,13 +2977,13 @@
         <v>44865</v>
       </c>
       <c r="H62" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="82"/>
       <c r="J62" s="31"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+    <row r="63" spans="1:11" ht="24.75" customHeight="1">
       <c r="A63" s="14"/>
       <c r="B63" s="50" t="s">
         <v>87</v>
@@ -2992,7 +2992,7 @@
         <v>59</v>
       </c>
       <c r="D63" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E63" s="52" t="s">
         <v>107</v>
@@ -3004,7 +3004,7 @@
         <v>44865</v>
       </c>
       <c r="H63" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="82"/>
       <c r="J63" s="31"/>
@@ -3019,7 +3019,7 @@
         <v>67</v>
       </c>
       <c r="D64" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>109</v>
@@ -3031,7 +3031,7 @@
         <v>44865</v>
       </c>
       <c r="H64" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="82"/>
       <c r="J64" s="31"/>
@@ -3058,7 +3058,7 @@
         <v>44865</v>
       </c>
       <c r="H65" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="82"/>
       <c r="J65" s="31"/>
@@ -3085,7 +3085,7 @@
         <v>44865</v>
       </c>
       <c r="H66" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" s="82"/>
       <c r="J66" s="31"/>
@@ -3127,7 +3127,7 @@
         <v>44879</v>
       </c>
       <c r="H67" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="82"/>
       <c r="J67" s="31"/>
@@ -3160,7 +3160,7 @@
         <v>117</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="F68" s="26">
         <v>44872</v>
@@ -3169,7 +3169,7 @@
         <v>44879</v>
       </c>
       <c r="H68" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" s="82"/>
       <c r="J68" s="31"/>
@@ -3178,16 +3178,16 @@
     <row r="69" spans="1:26" ht="13.5" customHeight="1">
       <c r="A69" s="14"/>
       <c r="B69" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="D69" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="24" t="s">
-        <v>121</v>
-      </c>
       <c r="E69" s="52" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="F69" s="26">
         <v>44872</v>
@@ -3196,10 +3196,10 @@
         <v>44879</v>
       </c>
       <c r="H69" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="81" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J69" s="31"/>
       <c r="K69" s="2"/>
@@ -3216,7 +3216,7 @@
         <v>76</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F70" s="26">
         <v>44879</v>
@@ -3225,7 +3225,7 @@
         <v>44886</v>
       </c>
       <c r="H70" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="82"/>
       <c r="J70" s="31"/>
@@ -3237,10 +3237,10 @@
         <v>79</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>82</v>
@@ -3252,10 +3252,10 @@
         <v>44886</v>
       </c>
       <c r="H71" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J71" s="31"/>
       <c r="K71" s="2"/>
@@ -3263,13 +3263,13 @@
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="14"/>
       <c r="B72" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>128</v>
-      </c>
-      <c r="C72" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>130</v>
       </c>
       <c r="E72" s="52" t="s">
         <v>82</v>
@@ -3281,7 +3281,7 @@
         <v>44886</v>
       </c>
       <c r="H72" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="82"/>
       <c r="J72" s="31"/>
@@ -3290,7 +3290,7 @@
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="64"/>
       <c r="D73" s="65"/>
@@ -5091,7 +5091,9 @@
   </sheetPr>
   <dimension ref="B1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5103,103 +5105,103 @@
     <row r="1" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="2" spans="2:4" ht="15.75" customHeight="1">
       <c r="B2" s="72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" customHeight="1">
       <c r="B3" s="91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="89"/>
     </row>
     <row r="4" spans="2:4" ht="15.75" customHeight="1">
       <c r="B4" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="75" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="75" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" customHeight="1">
       <c r="B5" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="77" t="s">
         <v>137</v>
-      </c>
-      <c r="C5" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" customHeight="1">
       <c r="B6" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="77" t="s">
         <v>140</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" customHeight="1">
       <c r="B7" s="76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" customHeight="1">
       <c r="B8" s="78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" customHeight="1">
       <c r="B9" s="76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" customHeight="1">
       <c r="B10" s="76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" customHeight="1">
       <c r="B11" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="80" t="s">
         <v>150</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" customHeight="1"/>
